--- a/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B7306A5-BDC1-47A8-A955-2EE826213889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D982AE-C9C8-4BDD-804E-599226501A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB3A5BF6-6350-490C-826A-30176DB5B9C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48FEBCBF-5D4B-4CEF-99E7-C5F26D5B36F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -74,502 +74,508 @@
     <t>46,69%</t>
   </si>
   <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>42,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B01EB89-D71C-4EDF-B374-2BCDA19C89E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24446B8A-7AAB-4B02-AE65-E07332458607}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1448,13 +1454,13 @@
         <v>108366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1475,13 @@
         <v>64831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -1484,13 +1490,13 @@
         <v>44827</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -1499,13 +1505,13 @@
         <v>109657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1567,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1573,13 +1579,13 @@
         <v>101066</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -1588,13 +1594,13 @@
         <v>40335</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -1603,13 +1609,13 @@
         <v>141400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1630,13 @@
         <v>95098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -1639,13 +1645,13 @@
         <v>74137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>165</v>
@@ -1654,13 +1660,13 @@
         <v>169235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1728,13 +1734,13 @@
         <v>90252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1743,13 +1749,13 @@
         <v>30132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -1758,13 +1764,13 @@
         <v>120383</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1785,13 @@
         <v>20637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1794,13 +1800,13 @@
         <v>18305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -1809,13 +1815,13 @@
         <v>38942</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1889,13 @@
         <v>73160</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -1898,13 +1904,13 @@
         <v>36186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -1913,13 +1919,13 @@
         <v>109346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>57555</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -1949,13 +1955,13 @@
         <v>37112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -1964,7 +1970,7 @@
         <v>94667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>122</v>
@@ -2071,10 +2077,10 @@
         <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2095,13 @@
         <v>116133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -2104,13 +2110,13 @@
         <v>67337</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -2119,13 +2125,13 @@
         <v>183469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2193,13 +2199,13 @@
         <v>330995</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -2208,13 +2214,13 @@
         <v>122582</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
@@ -2223,13 +2229,13 @@
         <v>453577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>125725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2259,13 +2265,13 @@
         <v>102135</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -2274,13 +2280,13 @@
         <v>227860</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2354,13 @@
         <v>1125648</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>444</v>
@@ -2363,13 +2369,13 @@
         <v>458672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1525</v>
@@ -2378,13 +2384,13 @@
         <v>1584320</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>622152</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -2414,13 +2420,13 @@
         <v>465792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1033</v>
@@ -2429,13 +2435,13 @@
         <v>1087945</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D982AE-C9C8-4BDD-804E-599226501A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024EEEBD-79F4-4570-83A4-A5DA0DAB4188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48FEBCBF-5D4B-4CEF-99E7-C5F26D5B36F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFD33D7-692F-4199-8F51-2B0DC822CB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>46,69%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>53,31%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>58,35%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>59,41%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>40,59%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,220 +194,220 @@
     <t>55,12%</t>
   </si>
   <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
     <t>46,4%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +416,55 @@
     <t>59,5%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>56,35%</t>
   </si>
   <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>58,4%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
   </si>
   <si>
     <t>40,5%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>43,65%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>41,6%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,109 +473,109 @@
     <t>72,47%</t>
   </si>
   <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>54,55%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>45,45%</t>
   </si>
   <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
   </si>
   <si>
     <t>33,44%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>49,61%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>50,39%</t>
   </si>
   <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24446B8A-7AAB-4B02-AE65-E07332458607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D6E19-5B53-4718-8CCB-BB7C82B999AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1904,13 +1904,13 @@
         <v>36186</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -1919,7 +1919,7 @@
         <v>109346</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>114</v>
@@ -1955,13 +1955,13 @@
         <v>37112</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>91</v>
@@ -1970,7 +1970,7 @@
         <v>94667</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>122</v>

--- a/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{024EEEBD-79F4-4570-83A4-A5DA0DAB4188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7119027-5C64-49C6-B624-286D4FD1E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFD33D7-692F-4199-8F51-2B0DC822CB0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC479ABF-C8B3-41F8-9C9F-474127249ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población según si le han realizado algún reconocimiento médico en su empresa en 2007 (Tasa respuesta: 39,29%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>46,69%</t>
   </si>
   <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>53,31%</t>
   </si>
   <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>58,35%</t>
   </si>
   <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>59,41%</t>
   </si>
   <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>40,59%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,388 +194,382 @@
     <t>55,12%</t>
   </si>
   <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
+    <t>53,68%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290D6E19-5B53-4718-8CCB-BB7C82B999AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A8BB5-DE4D-4EE1-B217-BAC4190FEE64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1454,13 +1448,13 @@
         <v>108366</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1475,13 +1469,13 @@
         <v>64831</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>44</v>
@@ -1490,13 +1484,13 @@
         <v>44827</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>105</v>
@@ -1505,13 +1499,13 @@
         <v>109657</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1579,13 +1573,13 @@
         <v>101066</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -1594,13 +1588,13 @@
         <v>40335</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -1609,13 +1603,13 @@
         <v>141400</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,13 +1624,13 @@
         <v>95098</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -1645,13 +1639,13 @@
         <v>74137</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>165</v>
@@ -1660,13 +1654,13 @@
         <v>169235</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1734,13 +1728,13 @@
         <v>90252</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -1749,13 +1743,13 @@
         <v>30132</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -1764,13 +1758,13 @@
         <v>120383</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1779,13 @@
         <v>20637</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1800,13 +1794,13 @@
         <v>18305</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -1815,13 +1809,13 @@
         <v>38942</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1871,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1883,13 @@
         <v>73160</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -1904,13 +1898,13 @@
         <v>36186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>105</v>
@@ -1919,13 +1913,13 @@
         <v>109346</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1934,13 @@
         <v>57555</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -1955,7 +1949,7 @@
         <v>37112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>119</v>
@@ -2077,10 +2071,10 @@
         <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2089,13 @@
         <v>116133</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>62</v>
@@ -2110,13 +2104,13 @@
         <v>67337</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -2125,13 +2119,13 @@
         <v>183469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2199,13 +2193,13 @@
         <v>330995</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -2214,13 +2208,13 @@
         <v>122582</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
@@ -2229,13 +2223,13 @@
         <v>453577</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2244,13 @@
         <v>125725</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2265,13 +2259,13 @@
         <v>102135</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>219</v>
@@ -2280,13 +2274,13 @@
         <v>227860</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2348,13 @@
         <v>1125648</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>444</v>
@@ -2369,13 +2363,13 @@
         <v>458672</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>1525</v>
@@ -2384,13 +2378,13 @@
         <v>1584320</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2399,13 @@
         <v>622152</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>441</v>
@@ -2420,13 +2414,13 @@
         <v>465792</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1033</v>
@@ -2435,13 +2429,13 @@
         <v>1087945</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A03_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7119027-5C64-49C6-B624-286D4FD1E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1879117-FA61-4C98-95FC-4AC31F477EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC479ABF-C8B3-41F8-9C9F-474127249ACB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F5EB761B-38E9-4720-AB7F-491F23646FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40A8BB5-DE4D-4EE1-B217-BAC4190FEE64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF98BCD1-E7F8-443A-BDCC-0EA76877980D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
